--- a/solutions/azure/ai/document-intelligence/presales/infrastructure-costs.xlsx
+++ b/solutions/azure/ai/document-intelligence/presales/infrastructure-costs.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1280,7 +1280,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1819,7 +1819,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -1966,7 +1966,7 @@
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2359,7 +2359,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2411,7 +2411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2476,7 +2476,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2567,69 +2567,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
